--- a/Code/Results/Cases/Case_0_159/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_159/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006617298066786</v>
+        <v>1.038637502042585</v>
       </c>
       <c r="D2">
-        <v>1.021294954824054</v>
+        <v>1.048689865595021</v>
       </c>
       <c r="E2">
-        <v>1.020445930263678</v>
+        <v>1.047114037982982</v>
       </c>
       <c r="F2">
-        <v>1.027490338568395</v>
+        <v>1.057644199255419</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045235495898884</v>
+        <v>1.033448618331143</v>
       </c>
       <c r="J2">
-        <v>1.028601872367819</v>
+        <v>1.043733857995824</v>
       </c>
       <c r="K2">
-        <v>1.032465379490427</v>
+        <v>1.051449008593891</v>
       </c>
       <c r="L2">
-        <v>1.031627584090157</v>
+        <v>1.049877581866902</v>
       </c>
       <c r="M2">
-        <v>1.03857952690265</v>
+        <v>1.060378604807207</v>
       </c>
       <c r="N2">
-        <v>1.013301372122941</v>
+        <v>1.018486864579258</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01090830646673</v>
+        <v>1.039557447109204</v>
       </c>
       <c r="D3">
-        <v>1.025067727794383</v>
+        <v>1.049553471098263</v>
       </c>
       <c r="E3">
-        <v>1.024061090280718</v>
+        <v>1.047943685838606</v>
       </c>
       <c r="F3">
-        <v>1.031546276449765</v>
+        <v>1.058583732764481</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045963370690864</v>
+        <v>1.033536788815871</v>
       </c>
       <c r="J3">
-        <v>1.031105953588225</v>
+        <v>1.04429882646677</v>
       </c>
       <c r="K3">
-        <v>1.035389602834875</v>
+        <v>1.052124576786032</v>
       </c>
       <c r="L3">
-        <v>1.034395089914897</v>
+        <v>1.050518962222228</v>
       </c>
       <c r="M3">
-        <v>1.041790821252113</v>
+        <v>1.061131696044088</v>
       </c>
       <c r="N3">
-        <v>1.014149027651906</v>
+        <v>1.018676380304725</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013631485832193</v>
+        <v>1.040153242855415</v>
       </c>
       <c r="D4">
-        <v>1.027467475510742</v>
+        <v>1.050113136007309</v>
       </c>
       <c r="E4">
-        <v>1.026361380007028</v>
+        <v>1.048481406810249</v>
       </c>
       <c r="F4">
-        <v>1.034127277784807</v>
+        <v>1.059192773332784</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046413513304391</v>
+        <v>1.033592421776112</v>
       </c>
       <c r="J4">
-        <v>1.032692809517092</v>
+        <v>1.044664294445915</v>
       </c>
       <c r="K4">
-        <v>1.037245320397087</v>
+        <v>1.052561926259448</v>
       </c>
       <c r="L4">
-        <v>1.036151725605104</v>
+        <v>1.050934211755989</v>
       </c>
       <c r="M4">
-        <v>1.043830551228406</v>
+        <v>1.061619466944717</v>
       </c>
       <c r="N4">
-        <v>1.014685955999587</v>
+        <v>1.018798917704992</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014763953384715</v>
+        <v>1.040403840949444</v>
       </c>
       <c r="D5">
-        <v>1.028466713507613</v>
+        <v>1.05034862210182</v>
       </c>
       <c r="E5">
-        <v>1.027319391109567</v>
+        <v>1.048707674610438</v>
       </c>
       <c r="F5">
-        <v>1.035202268288415</v>
+        <v>1.059449075611044</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046597840882967</v>
+        <v>1.033615469519347</v>
       </c>
       <c r="J5">
-        <v>1.033352138954944</v>
+        <v>1.044817911038616</v>
       </c>
       <c r="K5">
-        <v>1.038016992732271</v>
+        <v>1.052745837342461</v>
       </c>
       <c r="L5">
-        <v>1.036882284253326</v>
+        <v>1.051108837312064</v>
       </c>
       <c r="M5">
-        <v>1.044679186899672</v>
+        <v>1.061824637070426</v>
       </c>
       <c r="N5">
-        <v>1.014908986433531</v>
+        <v>1.018850409976366</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014953387027308</v>
+        <v>1.040445924798418</v>
       </c>
       <c r="D6">
-        <v>1.028633935024249</v>
+        <v>1.050388173109466</v>
       </c>
       <c r="E6">
-        <v>1.027479724204925</v>
+        <v>1.048745678232994</v>
       </c>
       <c r="F6">
-        <v>1.03538218353108</v>
+        <v>1.059492125186162</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046628504397228</v>
+        <v>1.033619319361386</v>
       </c>
       <c r="J6">
-        <v>1.033462393079121</v>
+        <v>1.044843702373793</v>
       </c>
       <c r="K6">
-        <v>1.038146070350719</v>
+        <v>1.052776719679168</v>
       </c>
       <c r="L6">
-        <v>1.037004489930143</v>
+        <v>1.051138160879472</v>
       </c>
       <c r="M6">
-        <v>1.04482116441836</v>
+        <v>1.06185909251968</v>
       </c>
       <c r="N6">
-        <v>1.014946278309866</v>
+        <v>1.018859054425947</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013646665925268</v>
+        <v>1.040156590867619</v>
       </c>
       <c r="D7">
-        <v>1.02748086475213</v>
+        <v>1.050116281788491</v>
       </c>
       <c r="E7">
-        <v>1.026374216098806</v>
+        <v>1.048484429388861</v>
       </c>
       <c r="F7">
-        <v>1.034141680956006</v>
+        <v>1.059196197030395</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04641599550103</v>
+        <v>1.033592731079271</v>
       </c>
       <c r="J7">
-        <v>1.032701649808783</v>
+        <v>1.044666347182527</v>
       </c>
       <c r="K7">
-        <v>1.037255664477131</v>
+        <v>1.052564383496019</v>
       </c>
       <c r="L7">
-        <v>1.036161518219898</v>
+        <v>1.050936544898055</v>
       </c>
       <c r="M7">
-        <v>1.043841925222454</v>
+        <v>1.061622208002646</v>
       </c>
       <c r="N7">
-        <v>1.014688946634456</v>
+        <v>1.018799605836014</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008078781227897</v>
+        <v>1.038948291329484</v>
       </c>
       <c r="D8">
-        <v>1.022578766728867</v>
+        <v>1.048981547259697</v>
       </c>
       <c r="E8">
-        <v>1.021675940314481</v>
+        <v>1.047394237517841</v>
       </c>
       <c r="F8">
-        <v>1.028870271812932</v>
+        <v>1.057961490360973</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045485847498116</v>
+        <v>1.033478709470654</v>
       </c>
       <c r="J8">
-        <v>1.029455202804952</v>
+        <v>1.043924812659599</v>
       </c>
       <c r="K8">
-        <v>1.033461339023771</v>
+        <v>1.051677275408874</v>
       </c>
       <c r="L8">
-        <v>1.032570088804829</v>
+        <v>1.050094290242942</v>
       </c>
       <c r="M8">
-        <v>1.039672877280273</v>
+        <v>1.060633017250438</v>
       </c>
       <c r="N8">
-        <v>1.013590280562448</v>
+        <v>1.018550931080006</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9978384383693663</v>
+        <v>1.036823226591152</v>
       </c>
       <c r="D9">
-        <v>1.013607936687028</v>
+        <v>1.046988613476559</v>
       </c>
       <c r="E9">
-        <v>1.013084583358471</v>
+        <v>1.045480014686694</v>
       </c>
       <c r="F9">
-        <v>1.019232339739459</v>
+        <v>1.055794272146152</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043683523771667</v>
+        <v>1.03326694496509</v>
       </c>
       <c r="J9">
-        <v>1.023467758535893</v>
+        <v>1.042617385401031</v>
       </c>
       <c r="K9">
-        <v>1.026484026353717</v>
+        <v>1.050115756790031</v>
       </c>
       <c r="L9">
-        <v>1.025968880344649</v>
+        <v>1.048611974426488</v>
       </c>
       <c r="M9">
-        <v>1.032020905964912</v>
+        <v>1.058893602299941</v>
       </c>
       <c r="N9">
-        <v>1.011562258858042</v>
+        <v>1.018112049585399</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9906932948835118</v>
+        <v>1.03540935702664</v>
       </c>
       <c r="D10">
-        <v>1.007381606503627</v>
+        <v>1.045664531035805</v>
       </c>
       <c r="E10">
-        <v>1.007126303464195</v>
+        <v>1.044208554287813</v>
       </c>
       <c r="F10">
-        <v>1.012548501290626</v>
+        <v>1.054355265706302</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042366734465636</v>
+        <v>1.033118512475238</v>
       </c>
       <c r="J10">
-        <v>1.019281089660001</v>
+        <v>1.041745332053282</v>
       </c>
       <c r="K10">
-        <v>1.021618850625766</v>
+        <v>1.04907595106981</v>
       </c>
       <c r="L10">
-        <v>1.021368071433014</v>
+        <v>1.047625078768965</v>
       </c>
       <c r="M10">
-        <v>1.02669482556704</v>
+        <v>1.057736539940333</v>
       </c>
       <c r="N10">
-        <v>1.010143208772715</v>
+        <v>1.017819027521553</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9875167125037558</v>
+        <v>1.034797825016728</v>
       </c>
       <c r="D11">
-        <v>1.00462194994734</v>
+        <v>1.045092285161297</v>
       </c>
       <c r="E11">
-        <v>1.004486630675951</v>
+        <v>1.043659129361148</v>
       </c>
       <c r="F11">
-        <v>1.009587279423539</v>
+        <v>1.053733557093965</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041767897518712</v>
+        <v>1.033052525745116</v>
       </c>
       <c r="J11">
-        <v>1.01741819258789</v>
+        <v>1.04136763435228</v>
       </c>
       <c r="K11">
-        <v>1.019457226280812</v>
+        <v>1.048626006170927</v>
       </c>
       <c r="L11">
-        <v>1.019324428830609</v>
+        <v>1.047198069563435</v>
       </c>
       <c r="M11">
-        <v>1.024330630542402</v>
+        <v>1.057236140804295</v>
       </c>
       <c r="N11">
-        <v>1.009511604756056</v>
+        <v>1.017692048142487</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9863237085953747</v>
+        <v>1.034570778597212</v>
       </c>
       <c r="D12">
-        <v>1.003586850349138</v>
+        <v>1.044879892975176</v>
       </c>
       <c r="E12">
-        <v>1.003496718091289</v>
+        <v>1.043455219183885</v>
       </c>
       <c r="F12">
-        <v>1.008476750344349</v>
+        <v>1.053502837368273</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041541035958264</v>
+        <v>1.033027758312509</v>
       </c>
       <c r="J12">
-        <v>1.016718367460246</v>
+        <v>1.041227327786687</v>
       </c>
       <c r="K12">
-        <v>1.018645653093472</v>
+        <v>1.048458922639204</v>
       </c>
       <c r="L12">
-        <v>1.018557231727129</v>
+        <v>1.047039509121646</v>
       </c>
       <c r="M12">
-        <v>1.023443331391484</v>
+        <v>1.057050364291163</v>
       </c>
       <c r="N12">
-        <v>1.009274309525243</v>
+        <v>1.017644867921616</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9865802148954539</v>
+        <v>1.03461947610843</v>
       </c>
       <c r="D13">
-        <v>1.003809345159956</v>
+        <v>1.044925444309731</v>
       </c>
       <c r="E13">
-        <v>1.003709491564812</v>
+        <v>1.043498950859312</v>
       </c>
       <c r="F13">
-        <v>1.008715450993354</v>
+        <v>1.053552317979771</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041589900892624</v>
+        <v>1.033033082632737</v>
       </c>
       <c r="J13">
-        <v>1.016868843873899</v>
+        <v>1.041257424583433</v>
       </c>
       <c r="K13">
-        <v>1.018820136262717</v>
+        <v>1.048494760519915</v>
       </c>
       <c r="L13">
-        <v>1.018722170654951</v>
+        <v>1.047073518601594</v>
       </c>
       <c r="M13">
-        <v>1.023634080393717</v>
+        <v>1.057090209707652</v>
       </c>
       <c r="N13">
-        <v>1.00932533375876</v>
+        <v>1.017654988885017</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.987418369203003</v>
+        <v>1.034779055164424</v>
       </c>
       <c r="D14">
-        <v>1.004536596009821</v>
+        <v>1.045074725373542</v>
       </c>
       <c r="E14">
-        <v>1.004404999080612</v>
+        <v>1.043642270590947</v>
       </c>
       <c r="F14">
-        <v>1.009495702103128</v>
+        <v>1.053714481425359</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041749236107113</v>
+        <v>1.033050483701368</v>
       </c>
       <c r="J14">
-        <v>1.017360507278019</v>
+        <v>1.041356036822855</v>
       </c>
       <c r="K14">
-        <v>1.019390320186143</v>
+        <v>1.048612194047456</v>
       </c>
       <c r="L14">
-        <v>1.01926117945625</v>
+        <v>1.047184961884964</v>
       </c>
       <c r="M14">
-        <v>1.024257474944885</v>
+        <v>1.05722078253406</v>
       </c>
       <c r="N14">
-        <v>1.009492045402057</v>
+        <v>1.017688148502496</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9879330301600897</v>
+        <v>1.034877390877982</v>
       </c>
       <c r="D15">
-        <v>1.004983333869884</v>
+        <v>1.045166724329275</v>
       </c>
       <c r="E15">
-        <v>1.004832261914566</v>
+        <v>1.043730597274382</v>
       </c>
       <c r="F15">
-        <v>1.009975019867361</v>
+        <v>1.053814423622053</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041846817428985</v>
+        <v>1.03306117103274</v>
       </c>
       <c r="J15">
-        <v>1.017662384848681</v>
+        <v>1.041416793412794</v>
       </c>
       <c r="K15">
-        <v>1.019740471046166</v>
+        <v>1.048684554858602</v>
       </c>
       <c r="L15">
-        <v>1.019592196276363</v>
+        <v>1.047253632404773</v>
       </c>
       <c r="M15">
-        <v>1.024640345741329</v>
+        <v>1.057301245260014</v>
       </c>
       <c r="N15">
-        <v>1.009594402064862</v>
+        <v>1.01770857733859</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.990902316962112</v>
+        <v>1.035449956881823</v>
       </c>
       <c r="D16">
-        <v>1.007563374999315</v>
+        <v>1.045702532220409</v>
       </c>
       <c r="E16">
-        <v>1.007300194168671</v>
+        <v>1.044245041663738</v>
       </c>
       <c r="F16">
-        <v>1.012743570802932</v>
+        <v>1.054396555895915</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042405863331637</v>
+        <v>1.033122855722693</v>
       </c>
       <c r="J16">
-        <v>1.019403640813738</v>
+        <v>1.041770396745766</v>
       </c>
       <c r="K16">
-        <v>1.021761119531716</v>
+        <v>1.049105818816168</v>
       </c>
       <c r="L16">
-        <v>1.021502586326744</v>
+        <v>1.047653424877664</v>
       </c>
       <c r="M16">
-        <v>1.026850472605281</v>
+        <v>1.057769762890049</v>
       </c>
       <c r="N16">
-        <v>1.01018475549072</v>
+        <v>1.017827452678059</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9927422838260641</v>
+        <v>1.035809296076712</v>
       </c>
       <c r="D17">
-        <v>1.009164403661358</v>
+        <v>1.04603892343433</v>
       </c>
       <c r="E17">
-        <v>1.008831969836527</v>
+        <v>1.044568041553799</v>
       </c>
       <c r="F17">
-        <v>1.014461893148683</v>
+        <v>1.054762085544376</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042748782241621</v>
+        <v>1.033161090277597</v>
       </c>
       <c r="J17">
-        <v>1.020482251004642</v>
+        <v>1.041992178711957</v>
       </c>
       <c r="K17">
-        <v>1.02301363332241</v>
+        <v>1.049370147218027</v>
       </c>
       <c r="L17">
-        <v>1.022686894693433</v>
+        <v>1.047904291521495</v>
       </c>
       <c r="M17">
-        <v>1.028221017020189</v>
+        <v>1.058063817652875</v>
       </c>
       <c r="N17">
-        <v>1.010550400330613</v>
+        <v>1.017901993866519</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.993807573744715</v>
+        <v>1.036018958352609</v>
       </c>
       <c r="D18">
-        <v>1.01009215288548</v>
+        <v>1.046235239856255</v>
       </c>
       <c r="E18">
-        <v>1.009719700593402</v>
+        <v>1.044756550445125</v>
       </c>
       <c r="F18">
-        <v>1.015457726606479</v>
+        <v>1.054975426876263</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042946044514301</v>
+        <v>1.033183226386407</v>
       </c>
       <c r="J18">
-        <v>1.021106582132618</v>
+        <v>1.042121531346614</v>
       </c>
       <c r="K18">
-        <v>1.023738927178085</v>
+        <v>1.04952435415337</v>
       </c>
       <c r="L18">
-        <v>1.023372742275523</v>
+        <v>1.048050648884126</v>
       </c>
       <c r="M18">
-        <v>1.029014869344432</v>
+        <v>1.058235394211575</v>
       </c>
       <c r="N18">
-        <v>1.010762028474201</v>
+        <v>1.017945462910054</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9941694839824948</v>
+        <v>1.036090458895177</v>
       </c>
       <c r="D19">
-        <v>1.0104074702748</v>
+        <v>1.046302196465064</v>
       </c>
       <c r="E19">
-        <v>1.010021435516591</v>
+        <v>1.044820845464928</v>
       </c>
       <c r="F19">
-        <v>1.015796203933647</v>
+        <v>1.055048193449461</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04301284184889</v>
+        <v>1.033190746145555</v>
       </c>
       <c r="J19">
-        <v>1.021318658169833</v>
+        <v>1.042165635685675</v>
       </c>
       <c r="K19">
-        <v>1.023985350164077</v>
+        <v>1.04957693955365</v>
       </c>
       <c r="L19">
-        <v>1.023605771489822</v>
+        <v>1.048100558198759</v>
       </c>
       <c r="M19">
-        <v>1.029284621294183</v>
+        <v>1.058293907415733</v>
       </c>
       <c r="N19">
-        <v>1.010833912285775</v>
+        <v>1.017960283094091</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9925456978098619</v>
+        <v>1.035770735566785</v>
       </c>
       <c r="D20">
-        <v>1.008993263167331</v>
+        <v>1.046002820956465</v>
       </c>
       <c r="E20">
-        <v>1.008668220460297</v>
+        <v>1.044533375486392</v>
       </c>
       <c r="F20">
-        <v>1.014278202683794</v>
+        <v>1.054722853793137</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042712276259506</v>
+        <v>1.03315700518199</v>
       </c>
       <c r="J20">
-        <v>1.020367025650509</v>
+        <v>1.041968384532184</v>
       </c>
       <c r="K20">
-        <v>1.022879798939908</v>
+        <v>1.049341784309287</v>
       </c>
       <c r="L20">
-        <v>1.022560343094166</v>
+        <v>1.047877372679641</v>
       </c>
       <c r="M20">
-        <v>1.028074548959431</v>
+        <v>1.05803226220668</v>
       </c>
       <c r="N20">
-        <v>1.010511341181357</v>
+        <v>1.017893997289255</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9871719202089023</v>
+        <v>1.034732060234796</v>
       </c>
       <c r="D21">
-        <v>1.004322719952944</v>
+        <v>1.045030761242248</v>
       </c>
       <c r="E21">
-        <v>1.004200453275242</v>
+        <v>1.043600061777328</v>
       </c>
       <c r="F21">
-        <v>1.009266234552765</v>
+        <v>1.053666722507799</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041702439074612</v>
+        <v>1.033045366610971</v>
       </c>
       <c r="J21">
-        <v>1.017215944568928</v>
+        <v>1.041326998321101</v>
       </c>
       <c r="K21">
-        <v>1.019222657269254</v>
+        <v>1.048577611519321</v>
       </c>
       <c r="L21">
-        <v>1.019102681375775</v>
+        <v>1.047152143231232</v>
       </c>
       <c r="M21">
-        <v>1.024074156402653</v>
+        <v>1.057182329484974</v>
       </c>
       <c r="N21">
-        <v>1.009443028165541</v>
+        <v>1.017678384216386</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9837171798843839</v>
+        <v>1.034079604969926</v>
       </c>
       <c r="D22">
-        <v>1.001327812391819</v>
+        <v>1.044420546511431</v>
       </c>
       <c r="E22">
-        <v>1.001336641560584</v>
+        <v>1.04301423881739</v>
       </c>
       <c r="F22">
-        <v>1.006053403305465</v>
+        <v>1.053003909732475</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041041835966698</v>
+        <v>1.032973688231601</v>
       </c>
       <c r="J22">
-        <v>1.015189059789574</v>
+        <v>1.040923659725181</v>
       </c>
       <c r="K22">
-        <v>1.016873010872148</v>
+        <v>1.048097412754599</v>
       </c>
       <c r="L22">
-        <v>1.016881665744099</v>
+        <v>1.046696451376756</v>
       </c>
       <c r="M22">
-        <v>1.021505887410255</v>
+        <v>1.056648487626106</v>
       </c>
       <c r="N22">
-        <v>1.008755715907648</v>
+        <v>1.017542736470518</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9855560409979266</v>
+        <v>1.034425426464853</v>
       </c>
       <c r="D23">
-        <v>1.00292116993702</v>
+        <v>1.044743941574979</v>
       </c>
       <c r="E23">
-        <v>1.002860150206973</v>
+        <v>1.043324700440835</v>
       </c>
       <c r="F23">
-        <v>1.007762608705279</v>
+        <v>1.053355163254467</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041394510792773</v>
+        <v>1.033011827039513</v>
       </c>
       <c r="J23">
-        <v>1.016267999941154</v>
+        <v>1.041137483749014</v>
       </c>
       <c r="K23">
-        <v>1.018123503710279</v>
+        <v>1.048351949465987</v>
       </c>
       <c r="L23">
-        <v>1.018063655869984</v>
+        <v>1.046937994471496</v>
       </c>
       <c r="M23">
-        <v>1.02287255353158</v>
+        <v>1.056931435214154</v>
       </c>
       <c r="N23">
-        <v>1.009121593669127</v>
+        <v>1.017614653654141</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9926345510320438</v>
+        <v>1.035788159198185</v>
       </c>
       <c r="D24">
-        <v>1.009070613017482</v>
+        <v>1.046019133787571</v>
       </c>
       <c r="E24">
-        <v>1.008742229423946</v>
+        <v>1.044549039254933</v>
       </c>
       <c r="F24">
-        <v>1.014361224346211</v>
+        <v>1.054740580518722</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042728780251106</v>
+        <v>1.033158851572156</v>
       </c>
       <c r="J24">
-        <v>1.020419105849031</v>
+        <v>1.041979136125842</v>
       </c>
       <c r="K24">
-        <v>1.022940289213539</v>
+        <v>1.049354600198487</v>
       </c>
       <c r="L24">
-        <v>1.022617541552569</v>
+        <v>1.047889536049622</v>
       </c>
       <c r="M24">
-        <v>1.028140748732457</v>
+        <v>1.058046520571164</v>
       </c>
       <c r="N24">
-        <v>1.01052899540903</v>
+        <v>1.01789761062793</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000539610167406</v>
+        <v>1.037372111626546</v>
       </c>
       <c r="D25">
-        <v>1.015968733662126</v>
+        <v>1.047503041262554</v>
       </c>
       <c r="E25">
-        <v>1.015344730523271</v>
+        <v>1.045974067661563</v>
       </c>
       <c r="F25">
-        <v>1.021767712133553</v>
+        <v>1.05635353371841</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044169358238331</v>
+        <v>1.033322972650403</v>
       </c>
       <c r="J25">
-        <v>1.025048827914421</v>
+        <v>1.042955468384112</v>
       </c>
       <c r="K25">
-        <v>1.028324111918934</v>
+        <v>1.050519239786542</v>
       </c>
       <c r="L25">
-        <v>1.027709419437065</v>
+        <v>1.048994962312543</v>
       </c>
       <c r="M25">
-        <v>1.034037255361951</v>
+        <v>1.059342839812476</v>
       </c>
       <c r="N25">
-        <v>1.012097969471864</v>
+        <v>1.018225589442042</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_159/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_159/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038637502042585</v>
+        <v>1.006617298066787</v>
       </c>
       <c r="D2">
-        <v>1.048689865595021</v>
+        <v>1.021294954824054</v>
       </c>
       <c r="E2">
-        <v>1.047114037982982</v>
+        <v>1.020445930263679</v>
       </c>
       <c r="F2">
-        <v>1.057644199255419</v>
+        <v>1.027490338568395</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033448618331143</v>
+        <v>1.045235495898884</v>
       </c>
       <c r="J2">
-        <v>1.043733857995824</v>
+        <v>1.028601872367819</v>
       </c>
       <c r="K2">
-        <v>1.051449008593891</v>
+        <v>1.032465379490427</v>
       </c>
       <c r="L2">
-        <v>1.049877581866902</v>
+        <v>1.031627584090158</v>
       </c>
       <c r="M2">
-        <v>1.060378604807207</v>
+        <v>1.03857952690265</v>
       </c>
       <c r="N2">
-        <v>1.018486864579258</v>
+        <v>1.013301372122941</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039557447109204</v>
+        <v>1.010908306466729</v>
       </c>
       <c r="D3">
-        <v>1.049553471098263</v>
+        <v>1.025067727794382</v>
       </c>
       <c r="E3">
-        <v>1.047943685838606</v>
+        <v>1.024061090280717</v>
       </c>
       <c r="F3">
-        <v>1.058583732764481</v>
+        <v>1.031546276449765</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033536788815871</v>
+        <v>1.045963370690864</v>
       </c>
       <c r="J3">
-        <v>1.04429882646677</v>
+        <v>1.031105953588225</v>
       </c>
       <c r="K3">
-        <v>1.052124576786032</v>
+        <v>1.035389602834875</v>
       </c>
       <c r="L3">
-        <v>1.050518962222228</v>
+        <v>1.034395089914897</v>
       </c>
       <c r="M3">
-        <v>1.061131696044088</v>
+        <v>1.041790821252113</v>
       </c>
       <c r="N3">
-        <v>1.018676380304725</v>
+        <v>1.014149027651906</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040153242855415</v>
+        <v>1.013631485832193</v>
       </c>
       <c r="D4">
-        <v>1.050113136007309</v>
+        <v>1.027467475510742</v>
       </c>
       <c r="E4">
-        <v>1.048481406810249</v>
+        <v>1.026361380007028</v>
       </c>
       <c r="F4">
-        <v>1.059192773332784</v>
+        <v>1.034127277784806</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033592421776112</v>
+        <v>1.046413513304391</v>
       </c>
       <c r="J4">
-        <v>1.044664294445915</v>
+        <v>1.032692809517092</v>
       </c>
       <c r="K4">
-        <v>1.052561926259448</v>
+        <v>1.037245320397087</v>
       </c>
       <c r="L4">
-        <v>1.050934211755989</v>
+        <v>1.036151725605104</v>
       </c>
       <c r="M4">
-        <v>1.061619466944717</v>
+        <v>1.043830551228406</v>
       </c>
       <c r="N4">
-        <v>1.018798917704992</v>
+        <v>1.014685955999587</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040403840949444</v>
+        <v>1.014763953384715</v>
       </c>
       <c r="D5">
-        <v>1.05034862210182</v>
+        <v>1.028466713507613</v>
       </c>
       <c r="E5">
-        <v>1.048707674610438</v>
+        <v>1.027319391109567</v>
       </c>
       <c r="F5">
-        <v>1.059449075611044</v>
+        <v>1.035202268288415</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033615469519347</v>
+        <v>1.046597840882967</v>
       </c>
       <c r="J5">
-        <v>1.044817911038616</v>
+        <v>1.033352138954944</v>
       </c>
       <c r="K5">
-        <v>1.052745837342461</v>
+        <v>1.038016992732271</v>
       </c>
       <c r="L5">
-        <v>1.051108837312064</v>
+        <v>1.036882284253325</v>
       </c>
       <c r="M5">
-        <v>1.061824637070426</v>
+        <v>1.044679186899672</v>
       </c>
       <c r="N5">
-        <v>1.018850409976366</v>
+        <v>1.014908986433531</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040445924798418</v>
+        <v>1.014953387027308</v>
       </c>
       <c r="D6">
-        <v>1.050388173109466</v>
+        <v>1.02863393502425</v>
       </c>
       <c r="E6">
-        <v>1.048745678232994</v>
+        <v>1.027479724204925</v>
       </c>
       <c r="F6">
-        <v>1.059492125186162</v>
+        <v>1.035382183531081</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033619319361386</v>
+        <v>1.046628504397228</v>
       </c>
       <c r="J6">
-        <v>1.044843702373793</v>
+        <v>1.033462393079121</v>
       </c>
       <c r="K6">
-        <v>1.052776719679168</v>
+        <v>1.038146070350719</v>
       </c>
       <c r="L6">
-        <v>1.051138160879472</v>
+        <v>1.037004489930144</v>
       </c>
       <c r="M6">
-        <v>1.06185909251968</v>
+        <v>1.04482116441836</v>
       </c>
       <c r="N6">
-        <v>1.018859054425947</v>
+        <v>1.014946278309866</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040156590867619</v>
+        <v>1.013646665925269</v>
       </c>
       <c r="D7">
-        <v>1.050116281788491</v>
+        <v>1.027480864752129</v>
       </c>
       <c r="E7">
-        <v>1.048484429388861</v>
+        <v>1.026374216098806</v>
       </c>
       <c r="F7">
-        <v>1.059196197030395</v>
+        <v>1.034141680956006</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033592731079271</v>
+        <v>1.04641599550103</v>
       </c>
       <c r="J7">
-        <v>1.044666347182527</v>
+        <v>1.032701649808784</v>
       </c>
       <c r="K7">
-        <v>1.052564383496019</v>
+        <v>1.037255664477131</v>
       </c>
       <c r="L7">
-        <v>1.050936544898055</v>
+        <v>1.036161518219898</v>
       </c>
       <c r="M7">
-        <v>1.061622208002646</v>
+        <v>1.043841925222454</v>
       </c>
       <c r="N7">
-        <v>1.018799605836014</v>
+        <v>1.014688946634456</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038948291329484</v>
+        <v>1.008078781227896</v>
       </c>
       <c r="D8">
-        <v>1.048981547259697</v>
+        <v>1.022578766728867</v>
       </c>
       <c r="E8">
-        <v>1.047394237517841</v>
+        <v>1.021675940314481</v>
       </c>
       <c r="F8">
-        <v>1.057961490360973</v>
+        <v>1.028870271812932</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033478709470654</v>
+        <v>1.045485847498116</v>
       </c>
       <c r="J8">
-        <v>1.043924812659599</v>
+        <v>1.029455202804952</v>
       </c>
       <c r="K8">
-        <v>1.051677275408874</v>
+        <v>1.033461339023771</v>
       </c>
       <c r="L8">
-        <v>1.050094290242942</v>
+        <v>1.032570088804829</v>
       </c>
       <c r="M8">
-        <v>1.060633017250438</v>
+        <v>1.039672877280273</v>
       </c>
       <c r="N8">
-        <v>1.018550931080006</v>
+        <v>1.013590280562448</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036823226591152</v>
+        <v>0.9978384383693668</v>
       </c>
       <c r="D9">
-        <v>1.046988613476559</v>
+        <v>1.013607936687028</v>
       </c>
       <c r="E9">
-        <v>1.045480014686694</v>
+        <v>1.013084583358471</v>
       </c>
       <c r="F9">
-        <v>1.055794272146152</v>
+        <v>1.019232339739459</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03326694496509</v>
+        <v>1.043683523771667</v>
       </c>
       <c r="J9">
-        <v>1.042617385401031</v>
+        <v>1.023467758535893</v>
       </c>
       <c r="K9">
-        <v>1.050115756790031</v>
+        <v>1.026484026353717</v>
       </c>
       <c r="L9">
-        <v>1.048611974426488</v>
+        <v>1.025968880344649</v>
       </c>
       <c r="M9">
-        <v>1.058893602299941</v>
+        <v>1.032020905964913</v>
       </c>
       <c r="N9">
-        <v>1.018112049585399</v>
+        <v>1.011562258858042</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03540935702664</v>
+        <v>0.9906932948835107</v>
       </c>
       <c r="D10">
-        <v>1.045664531035805</v>
+        <v>1.007381606503625</v>
       </c>
       <c r="E10">
-        <v>1.044208554287813</v>
+        <v>1.007126303464194</v>
       </c>
       <c r="F10">
-        <v>1.054355265706302</v>
+        <v>1.012548501290625</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033118512475238</v>
+        <v>1.042366734465636</v>
       </c>
       <c r="J10">
-        <v>1.041745332053282</v>
+        <v>1.01928108966</v>
       </c>
       <c r="K10">
-        <v>1.04907595106981</v>
+        <v>1.021618850625764</v>
       </c>
       <c r="L10">
-        <v>1.047625078768965</v>
+        <v>1.021368071433013</v>
       </c>
       <c r="M10">
-        <v>1.057736539940333</v>
+        <v>1.026694825567039</v>
       </c>
       <c r="N10">
-        <v>1.017819027521553</v>
+        <v>1.010143208772715</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034797825016728</v>
+        <v>0.9875167125037555</v>
       </c>
       <c r="D11">
-        <v>1.045092285161297</v>
+        <v>1.004621949947339</v>
       </c>
       <c r="E11">
-        <v>1.043659129361148</v>
+        <v>1.00448663067595</v>
       </c>
       <c r="F11">
-        <v>1.053733557093965</v>
+        <v>1.009587279423538</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033052525745116</v>
+        <v>1.041767897518712</v>
       </c>
       <c r="J11">
-        <v>1.04136763435228</v>
+        <v>1.01741819258789</v>
       </c>
       <c r="K11">
-        <v>1.048626006170927</v>
+        <v>1.019457226280811</v>
       </c>
       <c r="L11">
-        <v>1.047198069563435</v>
+        <v>1.019324428830609</v>
       </c>
       <c r="M11">
-        <v>1.057236140804295</v>
+        <v>1.024330630542402</v>
       </c>
       <c r="N11">
-        <v>1.017692048142487</v>
+        <v>1.009511604756056</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034570778597212</v>
+        <v>0.9863237085953739</v>
       </c>
       <c r="D12">
-        <v>1.044879892975176</v>
+        <v>1.003586850349137</v>
       </c>
       <c r="E12">
-        <v>1.043455219183885</v>
+        <v>1.003496718091288</v>
       </c>
       <c r="F12">
-        <v>1.053502837368273</v>
+        <v>1.008476750344348</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033027758312509</v>
+        <v>1.041541035958263</v>
       </c>
       <c r="J12">
-        <v>1.041227327786687</v>
+        <v>1.016718367460245</v>
       </c>
       <c r="K12">
-        <v>1.048458922639204</v>
+        <v>1.018645653093471</v>
       </c>
       <c r="L12">
-        <v>1.047039509121646</v>
+        <v>1.018557231727129</v>
       </c>
       <c r="M12">
-        <v>1.057050364291163</v>
+        <v>1.023443331391483</v>
       </c>
       <c r="N12">
-        <v>1.017644867921616</v>
+        <v>1.009274309525243</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03461947610843</v>
+        <v>0.9865802148954534</v>
       </c>
       <c r="D13">
-        <v>1.044925444309731</v>
+        <v>1.003809345159955</v>
       </c>
       <c r="E13">
-        <v>1.043498950859312</v>
+        <v>1.003709491564811</v>
       </c>
       <c r="F13">
-        <v>1.053552317979771</v>
+        <v>1.008715450993353</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033033082632737</v>
+        <v>1.041589900892624</v>
       </c>
       <c r="J13">
-        <v>1.041257424583433</v>
+        <v>1.016868843873899</v>
       </c>
       <c r="K13">
-        <v>1.048494760519915</v>
+        <v>1.018820136262716</v>
       </c>
       <c r="L13">
-        <v>1.047073518601594</v>
+        <v>1.018722170654951</v>
       </c>
       <c r="M13">
-        <v>1.057090209707652</v>
+        <v>1.023634080393716</v>
       </c>
       <c r="N13">
-        <v>1.017654988885017</v>
+        <v>1.00932533375876</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034779055164424</v>
+        <v>0.9874183692030022</v>
       </c>
       <c r="D14">
-        <v>1.045074725373542</v>
+        <v>1.00453659600982</v>
       </c>
       <c r="E14">
-        <v>1.043642270590947</v>
+        <v>1.004404999080611</v>
       </c>
       <c r="F14">
-        <v>1.053714481425359</v>
+        <v>1.009495702103127</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033050483701368</v>
+        <v>1.041749236107113</v>
       </c>
       <c r="J14">
-        <v>1.041356036822855</v>
+        <v>1.017360507278018</v>
       </c>
       <c r="K14">
-        <v>1.048612194047456</v>
+        <v>1.019390320186142</v>
       </c>
       <c r="L14">
-        <v>1.047184961884964</v>
+        <v>1.01926117945625</v>
       </c>
       <c r="M14">
-        <v>1.05722078253406</v>
+        <v>1.024257474944884</v>
       </c>
       <c r="N14">
-        <v>1.017688148502496</v>
+        <v>1.009492045402056</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034877390877982</v>
+        <v>0.9879330301600895</v>
       </c>
       <c r="D15">
-        <v>1.045166724329275</v>
+        <v>1.004983333869884</v>
       </c>
       <c r="E15">
-        <v>1.043730597274382</v>
+        <v>1.004832261914566</v>
       </c>
       <c r="F15">
-        <v>1.053814423622053</v>
+        <v>1.009975019867361</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03306117103274</v>
+        <v>1.041846817428985</v>
       </c>
       <c r="J15">
-        <v>1.041416793412794</v>
+        <v>1.017662384848681</v>
       </c>
       <c r="K15">
-        <v>1.048684554858602</v>
+        <v>1.019740471046166</v>
       </c>
       <c r="L15">
-        <v>1.047253632404773</v>
+        <v>1.019592196276363</v>
       </c>
       <c r="M15">
-        <v>1.057301245260014</v>
+        <v>1.024640345741328</v>
       </c>
       <c r="N15">
-        <v>1.01770857733859</v>
+        <v>1.009594402064862</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035449956881823</v>
+        <v>0.9909023169621121</v>
       </c>
       <c r="D16">
-        <v>1.045702532220409</v>
+        <v>1.007563374999315</v>
       </c>
       <c r="E16">
-        <v>1.044245041663738</v>
+        <v>1.007300194168671</v>
       </c>
       <c r="F16">
-        <v>1.054396555895915</v>
+        <v>1.012743570802932</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033122855722693</v>
+        <v>1.042405863331636</v>
       </c>
       <c r="J16">
-        <v>1.041770396745766</v>
+        <v>1.019403640813738</v>
       </c>
       <c r="K16">
-        <v>1.049105818816168</v>
+        <v>1.021761119531716</v>
       </c>
       <c r="L16">
-        <v>1.047653424877664</v>
+        <v>1.021502586326744</v>
       </c>
       <c r="M16">
-        <v>1.057769762890049</v>
+        <v>1.026850472605281</v>
       </c>
       <c r="N16">
-        <v>1.017827452678059</v>
+        <v>1.01018475549072</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035809296076712</v>
+        <v>0.9927422838260649</v>
       </c>
       <c r="D17">
-        <v>1.04603892343433</v>
+        <v>1.009164403661359</v>
       </c>
       <c r="E17">
-        <v>1.044568041553799</v>
+        <v>1.008831969836528</v>
       </c>
       <c r="F17">
-        <v>1.054762085544376</v>
+        <v>1.014461893148684</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033161090277597</v>
+        <v>1.042748782241621</v>
       </c>
       <c r="J17">
-        <v>1.041992178711957</v>
+        <v>1.020482251004643</v>
       </c>
       <c r="K17">
-        <v>1.049370147218027</v>
+        <v>1.02301363332241</v>
       </c>
       <c r="L17">
-        <v>1.047904291521495</v>
+        <v>1.022686894693434</v>
       </c>
       <c r="M17">
-        <v>1.058063817652875</v>
+        <v>1.02822101702019</v>
       </c>
       <c r="N17">
-        <v>1.017901993866519</v>
+        <v>1.010550400330613</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036018958352609</v>
+        <v>0.9938075737447154</v>
       </c>
       <c r="D18">
-        <v>1.046235239856255</v>
+        <v>1.010092152885481</v>
       </c>
       <c r="E18">
-        <v>1.044756550445125</v>
+        <v>1.009719700593403</v>
       </c>
       <c r="F18">
-        <v>1.054975426876263</v>
+        <v>1.015457726606479</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033183226386407</v>
+        <v>1.042946044514301</v>
       </c>
       <c r="J18">
-        <v>1.042121531346614</v>
+        <v>1.021106582132618</v>
       </c>
       <c r="K18">
-        <v>1.04952435415337</v>
+        <v>1.023738927178085</v>
       </c>
       <c r="L18">
-        <v>1.048050648884126</v>
+        <v>1.023372742275523</v>
       </c>
       <c r="M18">
-        <v>1.058235394211575</v>
+        <v>1.029014869344433</v>
       </c>
       <c r="N18">
-        <v>1.017945462910054</v>
+        <v>1.010762028474201</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036090458895177</v>
+        <v>0.9941694839824954</v>
       </c>
       <c r="D19">
-        <v>1.046302196465064</v>
+        <v>1.010407470274801</v>
       </c>
       <c r="E19">
-        <v>1.044820845464928</v>
+        <v>1.010021435516592</v>
       </c>
       <c r="F19">
-        <v>1.055048193449461</v>
+        <v>1.015796203933648</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033190746145555</v>
+        <v>1.043012841848891</v>
       </c>
       <c r="J19">
-        <v>1.042165635685675</v>
+        <v>1.021318658169834</v>
       </c>
       <c r="K19">
-        <v>1.04957693955365</v>
+        <v>1.023985350164078</v>
       </c>
       <c r="L19">
-        <v>1.048100558198759</v>
+        <v>1.023605771489823</v>
       </c>
       <c r="M19">
-        <v>1.058293907415733</v>
+        <v>1.029284621294184</v>
       </c>
       <c r="N19">
-        <v>1.017960283094091</v>
+        <v>1.010833912285776</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035770735566785</v>
+        <v>0.9925456978098608</v>
       </c>
       <c r="D20">
-        <v>1.046002820956465</v>
+        <v>1.008993263167329</v>
       </c>
       <c r="E20">
-        <v>1.044533375486392</v>
+        <v>1.008668220460296</v>
       </c>
       <c r="F20">
-        <v>1.054722853793137</v>
+        <v>1.014278202683792</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03315700518199</v>
+        <v>1.042712276259506</v>
       </c>
       <c r="J20">
-        <v>1.041968384532184</v>
+        <v>1.020367025650508</v>
       </c>
       <c r="K20">
-        <v>1.049341784309287</v>
+        <v>1.022879798939907</v>
       </c>
       <c r="L20">
-        <v>1.047877372679641</v>
+        <v>1.022560343094165</v>
       </c>
       <c r="M20">
-        <v>1.05803226220668</v>
+        <v>1.02807454895943</v>
       </c>
       <c r="N20">
-        <v>1.017893997289255</v>
+        <v>1.010511341181357</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034732060234796</v>
+        <v>0.9871719202089023</v>
       </c>
       <c r="D21">
-        <v>1.045030761242248</v>
+        <v>1.004322719952944</v>
       </c>
       <c r="E21">
-        <v>1.043600061777328</v>
+        <v>1.004200453275242</v>
       </c>
       <c r="F21">
-        <v>1.053666722507799</v>
+        <v>1.009266234552765</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033045366610971</v>
+        <v>1.041702439074612</v>
       </c>
       <c r="J21">
-        <v>1.041326998321101</v>
+        <v>1.017215944568928</v>
       </c>
       <c r="K21">
-        <v>1.048577611519321</v>
+        <v>1.019222657269254</v>
       </c>
       <c r="L21">
-        <v>1.047152143231232</v>
+        <v>1.019102681375775</v>
       </c>
       <c r="M21">
-        <v>1.057182329484974</v>
+        <v>1.024074156402652</v>
       </c>
       <c r="N21">
-        <v>1.017678384216386</v>
+        <v>1.009443028165541</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034079604969926</v>
+        <v>0.9837171798843848</v>
       </c>
       <c r="D22">
-        <v>1.044420546511431</v>
+        <v>1.00132781239182</v>
       </c>
       <c r="E22">
-        <v>1.04301423881739</v>
+        <v>1.001336641560585</v>
       </c>
       <c r="F22">
-        <v>1.053003909732475</v>
+        <v>1.006053403305466</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032973688231601</v>
+        <v>1.041041835966698</v>
       </c>
       <c r="J22">
-        <v>1.040923659725181</v>
+        <v>1.015189059789575</v>
       </c>
       <c r="K22">
-        <v>1.048097412754599</v>
+        <v>1.016873010872149</v>
       </c>
       <c r="L22">
-        <v>1.046696451376756</v>
+        <v>1.0168816657441</v>
       </c>
       <c r="M22">
-        <v>1.056648487626106</v>
+        <v>1.021505887410256</v>
       </c>
       <c r="N22">
-        <v>1.017542736470518</v>
+        <v>1.008755715907648</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034425426464853</v>
+        <v>0.9855560409979267</v>
       </c>
       <c r="D23">
-        <v>1.044743941574979</v>
+        <v>1.00292116993702</v>
       </c>
       <c r="E23">
-        <v>1.043324700440835</v>
+        <v>1.002860150206973</v>
       </c>
       <c r="F23">
-        <v>1.053355163254467</v>
+        <v>1.00776260870528</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033011827039513</v>
+        <v>1.041394510792773</v>
       </c>
       <c r="J23">
-        <v>1.041137483749014</v>
+        <v>1.016267999941154</v>
       </c>
       <c r="K23">
-        <v>1.048351949465987</v>
+        <v>1.018123503710279</v>
       </c>
       <c r="L23">
-        <v>1.046937994471496</v>
+        <v>1.018063655869984</v>
       </c>
       <c r="M23">
-        <v>1.056931435214154</v>
+        <v>1.02287255353158</v>
       </c>
       <c r="N23">
-        <v>1.017614653654141</v>
+        <v>1.009121593669127</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035788159198185</v>
+        <v>0.9926345510320441</v>
       </c>
       <c r="D24">
-        <v>1.046019133787571</v>
+        <v>1.009070613017483</v>
       </c>
       <c r="E24">
-        <v>1.044549039254933</v>
+        <v>1.008742229423947</v>
       </c>
       <c r="F24">
-        <v>1.054740580518722</v>
+        <v>1.014361224346212</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033158851572156</v>
+        <v>1.042728780251106</v>
       </c>
       <c r="J24">
-        <v>1.041979136125842</v>
+        <v>1.020419105849031</v>
       </c>
       <c r="K24">
-        <v>1.049354600198487</v>
+        <v>1.022940289213539</v>
       </c>
       <c r="L24">
-        <v>1.047889536049622</v>
+        <v>1.022617541552569</v>
       </c>
       <c r="M24">
-        <v>1.058046520571164</v>
+        <v>1.028140748732457</v>
       </c>
       <c r="N24">
-        <v>1.01789761062793</v>
+        <v>1.01052899540903</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037372111626546</v>
+        <v>1.000539610167406</v>
       </c>
       <c r="D25">
-        <v>1.047503041262554</v>
+        <v>1.015968733662125</v>
       </c>
       <c r="E25">
-        <v>1.045974067661563</v>
+        <v>1.01534473052327</v>
       </c>
       <c r="F25">
-        <v>1.05635353371841</v>
+        <v>1.021767712133552</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033322972650403</v>
+        <v>1.044169358238331</v>
       </c>
       <c r="J25">
-        <v>1.042955468384112</v>
+        <v>1.025048827914421</v>
       </c>
       <c r="K25">
-        <v>1.050519239786542</v>
+        <v>1.028324111918933</v>
       </c>
       <c r="L25">
-        <v>1.048994962312543</v>
+        <v>1.027709419437065</v>
       </c>
       <c r="M25">
-        <v>1.059342839812476</v>
+        <v>1.034037255361951</v>
       </c>
       <c r="N25">
-        <v>1.018225589442042</v>
+        <v>1.012097969471863</v>
       </c>
     </row>
   </sheetData>
